--- a/data/ad_fcv.xlsx
+++ b/data/ad_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8180713819528149</v>
+        <v>0.8264268906274909</v>
       </c>
       <c r="D2">
-        <v>0.8111408885421275</v>
+        <v>0.01122763501421739</v>
       </c>
       <c r="E2">
-        <v>0.8072709580198479</v>
+        <v>0.8143328379751006</v>
       </c>
       <c r="F2">
-        <v>0.7936103762834548</v>
+        <v>0.02012404106331644</v>
       </c>
       <c r="G2">
-        <v>0.7908276393069655</v>
+        <v>0.8109150785487065</v>
+      </c>
+      <c r="H2">
+        <v>0.02577186844924204</v>
+      </c>
+      <c r="I2">
+        <v>0.8012891376516655</v>
+      </c>
+      <c r="J2">
+        <v>0.02539177282170518</v>
+      </c>
+      <c r="K2">
+        <v>0.7957997515833358</v>
+      </c>
+      <c r="L2">
+        <v>0.01661393786092331</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8175904572329376</v>
+        <v>0.828606625945117</v>
       </c>
       <c r="D3">
-        <v>0.8094173451136502</v>
+        <v>0.01555913010989755</v>
       </c>
       <c r="E3">
-        <v>0.7973386383973142</v>
+        <v>0.8157343673018017</v>
       </c>
       <c r="F3">
-        <v>0.7913811567433837</v>
+        <v>0.018806521292397</v>
       </c>
       <c r="G3">
-        <v>0.7901217005752066</v>
+        <v>0.8085701086391921</v>
+      </c>
+      <c r="H3">
+        <v>0.02186849292478791</v>
+      </c>
+      <c r="I3">
+        <v>0.7975634558053991</v>
+      </c>
+      <c r="J3">
+        <v>0.02544564488415158</v>
+      </c>
+      <c r="K3">
+        <v>0.7971571301335163</v>
+      </c>
+      <c r="L3">
+        <v>0.01789072582137708</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7905914071570771</v>
+        <v>0.7849732995398155</v>
       </c>
       <c r="D4">
-        <v>0.7986732023965163</v>
+        <v>0.01402292014079909</v>
       </c>
       <c r="E4">
-        <v>0.793713840814819</v>
+        <v>0.7860542918352966</v>
       </c>
       <c r="F4">
-        <v>0.794525402836042</v>
+        <v>0.01293600771969228</v>
       </c>
       <c r="G4">
-        <v>0.7913502000084007</v>
+        <v>0.7913651939779491</v>
+      </c>
+      <c r="H4">
+        <v>0.0220138601406211</v>
+      </c>
+      <c r="I4">
+        <v>0.7859606125915753</v>
+      </c>
+      <c r="J4">
+        <v>0.02393877279497811</v>
+      </c>
+      <c r="K4">
+        <v>0.7899518282178816</v>
+      </c>
+      <c r="L4">
+        <v>0.01780104247844531</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.779232409556146</v>
+        <v>0.7785419873187778</v>
       </c>
       <c r="D5">
-        <v>0.7683703083654135</v>
+        <v>0.01996766690408337</v>
       </c>
       <c r="E5">
-        <v>0.7632845917626232</v>
+        <v>0.7583743501208782</v>
       </c>
       <c r="F5">
-        <v>0.7503158682385638</v>
+        <v>0.02595044310704902</v>
       </c>
       <c r="G5">
-        <v>0.739238546000851</v>
+        <v>0.7627610847515232</v>
+      </c>
+      <c r="H5">
+        <v>0.01893351355317181</v>
+      </c>
+      <c r="I5">
+        <v>0.7572816705829635</v>
+      </c>
+      <c r="J5">
+        <v>0.02150987817729219</v>
+      </c>
+      <c r="K5">
+        <v>0.7787842209150448</v>
+      </c>
+      <c r="L5">
+        <v>0.047325556851765</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7592594202974137</v>
+        <v>0.8099408374985577</v>
       </c>
       <c r="D6">
-        <v>0.7363106661796961</v>
+        <v>0.01450498083821188</v>
       </c>
       <c r="E6">
-        <v>0.7295545730634065</v>
+        <v>0.7868341496122632</v>
       </c>
       <c r="F6">
-        <v>0.7100070385666013</v>
+        <v>0.01774035922152552</v>
       </c>
       <c r="G6">
-        <v>0.6961970454912751</v>
+        <v>0.7658460597753765</v>
+      </c>
+      <c r="H6">
+        <v>0.01859032752324731</v>
+      </c>
+      <c r="I6">
+        <v>0.7498881417320469</v>
+      </c>
+      <c r="J6">
+        <v>0.02538888135000571</v>
+      </c>
+      <c r="K6">
+        <v>0.7272122875408982</v>
+      </c>
+      <c r="L6">
+        <v>0.02487460848362794</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8326140670343323</v>
+        <v>0.8385617961403982</v>
       </c>
       <c r="D7">
-        <v>0.810407150811729</v>
+        <v>0.01595641532629525</v>
       </c>
       <c r="E7">
-        <v>0.7796175859760539</v>
+        <v>0.8146635517660957</v>
       </c>
       <c r="F7">
-        <v>0.7577915150436487</v>
+        <v>0.02239503821140553</v>
       </c>
       <c r="G7">
-        <v>0.7392616246788908</v>
+        <v>0.7996837897948321</v>
+      </c>
+      <c r="H7">
+        <v>0.01806656889432205</v>
+      </c>
+      <c r="I7">
+        <v>0.7926334592466758</v>
+      </c>
+      <c r="J7">
+        <v>0.03279898827721388</v>
+      </c>
+      <c r="K7">
+        <v>0.7921164679670845</v>
+      </c>
+      <c r="L7">
+        <v>0.03028093743184303</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6792009546901981</v>
+        <v>0.8300972622867798</v>
       </c>
       <c r="D8">
-        <v>0.6855838722598052</v>
+        <v>0.01371636570300042</v>
       </c>
       <c r="E8">
-        <v>0.6787945898547204</v>
+        <v>0.8218032467719066</v>
       </c>
       <c r="F8">
-        <v>0.6765416790994733</v>
+        <v>0.01504539490575349</v>
       </c>
       <c r="G8">
-        <v>0.673867714596226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8244178055404309</v>
-      </c>
-      <c r="D9">
-        <v>0.8207432633580719</v>
-      </c>
-      <c r="E9">
-        <v>0.8105041890661546</v>
-      </c>
-      <c r="F9">
-        <v>0.8070898116432934</v>
-      </c>
-      <c r="G9">
-        <v>0.7942043378093226</v>
+        <v>0.8186460356550274</v>
+      </c>
+      <c r="H8">
+        <v>0.02423171630635305</v>
+      </c>
+      <c r="I8">
+        <v>0.8121240718249185</v>
+      </c>
+      <c r="J8">
+        <v>0.02198892462307928</v>
+      </c>
+      <c r="K8">
+        <v>0.8016338676450649</v>
+      </c>
+      <c r="L8">
+        <v>0.02048257982777268</v>
       </c>
     </row>
   </sheetData>
